--- a/texture_worked_example.xlsx
+++ b/texture_worked_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\CASA0023\CASA0023 lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855AA86-E0F0-4BBB-A55E-B32D7B72E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28BB9E-88B7-4244-B762-E60EE60828D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="30960" windowHeight="11772" xr2:uid="{FFB920A4-91F6-4C4B-AB87-29859EF53BC0}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="31104" windowHeight="16560" xr2:uid="{FFB920A4-91F6-4C4B-AB87-29859EF53BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="first order occurrence" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Sum</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Mean of P</t>
-  </si>
-  <si>
     <t>i-u^2</t>
   </si>
   <si>
@@ -104,6 +101,57 @@
   </si>
   <si>
     <t>Middle pixel</t>
+  </si>
+  <si>
+    <t>FIRST ORDER METRICS (mean and variance)</t>
+  </si>
+  <si>
+    <t>see: https://www.nv5geospatialsoftware.com/docs/BackgroundTextureMetrics.html#Mean</t>
+  </si>
+  <si>
+    <t>Mean (M)</t>
+  </si>
+  <si>
+    <t>P(i)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>pixel value</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>mean (as per first equation)</t>
+  </si>
+  <si>
+    <t>P(i,j)</t>
+  </si>
+  <si>
+    <t>probablity of pixel i changing to pixel j</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>mean of probabilities</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Where:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probablity of each pixel value </t>
+  </si>
+  <si>
+    <t>Mean of P (u)</t>
+  </si>
+  <si>
+    <t>Sum (9 pixels)</t>
   </si>
 </sst>
 </file>
@@ -233,10 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -245,13 +292,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -270,10 +314,340 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330579</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>356927</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4770CCD-35AB-2EBD-E11A-08E8CB0656D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359779" y="52753"/>
+          <a:ext cx="4293548" cy="3747758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>356053</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2362236E-C799-0BC6-F9B3-7D9EE8F7B797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5385253" y="3874476"/>
+          <a:ext cx="4525391" cy="3972840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA454D-937A-A59E-B7E0-673837205E23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5753880" y="600840"/>
+            <a:ext cx="330480" cy="355320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA454D-937A-A59E-B7E0-673837205E23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5747760" y="594720"/>
+              <a:ext cx="342720" cy="367560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>363120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>494760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181449</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2E20F3-B642-0008-D522-C8465EB29CB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6001920" y="972720"/>
+            <a:ext cx="741240" cy="3593160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2E20F3-B642-0008-D522-C8465EB29CB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5995800" y="966600"/>
+              <a:ext cx="753480" cy="3605400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>578988</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D0D9F3-9BD8-683F-9452-78C8C3A55978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5917096" y="1563757"/>
+          <a:ext cx="6111770" cy="3520745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-24T14:55:11.876"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">478 171 24575,'-1'-3'0,"1"1"0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-3-1 0,-57-17 0,52 17 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 1 0,0 1 0,0 0 0,-14 9 0,3 0 0,1 0 0,0 2 0,1 0 0,1 2 0,-30 35 0,43-44 0,0-1 0,0 0 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,1-1 0,0 1 0,0-1 0,1 1 0,1 0 0,-1-1 0,1 1 0,1 0 0,0 0 0,0-1 0,1 1 0,1-1 0,-1 1 0,1-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,10 11 0,27 29 0,81 82 0,-79-90 0,1-3 0,96 60 0,-120-85 0,0-1 0,1-2 0,0 0 0,1-1 0,0-1 0,0-1 0,1-1 0,-1-1 0,49 2 0,-59-6 0,-2 0 0,0 0 0,0 0 0,-1-1 0,16-4 0,-22 4 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,4-6 0,2-5 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-2 0 0,0 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,0 1 0,-2 0 0,1 0 0,-2 1 0,0-1 0,-1 2 0,-13-17 0,-32-39 0,-81-81 0,58 67 0,55 56 0,-2 1 0,-1 1 0,-33-26 0,-28-11-1365,66 49-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-24T14:55:15.790"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'1'0'0,"1"0"0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 3 0,10 49 0,-10-43 0,14 162 0,-11-91 0,71 548 0,-57-498 0,7 218 0,8 50 0,41 205 0,-47-310 0,-13-163 0,5 32 0,9 114 0,-6 104 0,-8-165 0,22 154 0,-3-45 0,9 133 0,-8-109 0,-23-228 0,12 228 0,-25 39 0,3 165 0,7-391 0,1 60 0,-11-117 0,0-23 0,3 0 0,14 91 0,-5-82 0,-2 168 0,-6-72 0,5-58 0,3 144 0,-9-256 0,0-1 0,2 1 0,0 0 0,6 16 0,5 29 0,-10-39 0,1 1 0,1-1 0,2 0 0,0-1 0,1 0 0,1 0 0,0-1 0,2 0 0,1-1 0,1 0 0,0-1 0,1-1 0,1 0 0,1-1 0,1-1 0,0-1 0,1 0 0,0-1 0,43 22 0,-5-6 0,-29-14 0,-1-1 0,2-1 0,0-2 0,1-1 0,58 14 0,-50-18 0,43 15 0,-14-3 0,-17-3 0,0 3 0,-1 1 0,83 49 0,-120-61 0,-1 0 0,-1 1 0,0 1 0,0-1 0,-1 1 0,0 1 0,-1 0 0,12 19 0,-2-4 0,-13-18 0,-1 1 0,1-1 0,-2 1 0,1 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0 11 0,1 16 0,-1 35 0,-2-66 0,-5 36 120,5-40-161,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,-2 0 0,-5-3-6785</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1042.35">1743 9738 24575,'3'0'0,"3"0"0,7 0 0,3 0 0,3 0 0,2 0 0,2 0 0,1 0 0,1 0 0,0 0 0,-3 5 0,-3 2 0,-5 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6348.2">1711 9786 24575,'0'-1'0,"0"-1"0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 1 0,2-2 0,1 2 0,-1-1 0,1 1 0,-1-1 0,1 2 0,-1-1 0,10 4 0,-9-1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,6 9 0,35 64 0,-35-57 0,0 6 0,-10-28 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 0 0,1-1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-5-28 0,5 29 0,0-8 0,0 0 0,0 0 0,1-1 0,0 1 0,1 0 0,5-16 0,4-29 0,-10 53 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-5 0 0,-1 0 0,0 0 0,-1 1 0,1 0 0,0 1 0,-1 0 0,-10 2 0,20-3 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 2 0,9 14 0,26 16 0,-27-25 0,14 15 0,-16-16 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,7 4 0,-11-7 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,2-2 0,78-84 0,-81 87 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-18-6 0,-29 5 0,42 2 0,-49-1 0,30 0 0,0 1 0,0 1 0,-35 6 0,58-7 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,7 9 0,21 10 0,-19-13 0,6 6 0,-3-2 0,0-1 0,0-1 0,15 8 0,-25-15 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,3-3 0,-6 4 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 1 0,1-2 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-2 0 0,-6-2 0,1 0 0,-1 1 0,-14-2 0,-10 2 0,25 2 0,1 0 0,0 0 0,-1-1 0,1 0 0,0-1 0,0 1 0,-8-4 0,18 2 0,1 0 0,-1 1 0,0-1 0,1 1 0,0 0 0,6-4 0,0 3-273,-1-1 0,1 1 0,0 1 0,14-3 0,-4 3-6553</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -417,7 +791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330C6646-9D7C-4915-BF48-4C4E3764529E}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,12 +952,12 @@
     <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>6</v>
       </c>
@@ -600,58 +974,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
         <v>5</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
         <v>6</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -668,114 +1042,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <f>E10/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="12">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <f t="shared" ref="F11:F12" si="0">E11/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="12">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <f>E13/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15">
         <f>C3*F11</f>
         <v>0.88888888888888884</v>
       </c>
@@ -788,10 +1123,8 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16">
         <f>C4*F10</f>
         <v>1</v>
       </c>
@@ -805,9 +1138,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
+      <c r="C17">
         <f>C5*F13</f>
         <v>1.3333333333333333</v>
       </c>
@@ -820,107 +1151,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
         <f>SUM(C15:E17)</f>
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <f>(C3-$C$19)^2*F11</f>
+      <c r="C22">
+        <f>(C3-$C$20)^2*F11</f>
         <v>7.1358024691358013</v>
       </c>
-      <c r="D21" s="2">
-        <f>(D3-$C$19)^2*F10</f>
+      <c r="D22">
+        <f>(D3-$C$20)^2*F10</f>
         <v>14.814814814814811</v>
       </c>
-      <c r="E21" s="2">
-        <f>(E3-$C$19)^2*F12</f>
+      <c r="E22">
+        <f>(E3-$C$20)^2*F12</f>
         <v>4.8395061728395046</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
-        <f>(C4-$C$19)^2*F10</f>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>(C4-$C$20)^2*F10</f>
         <v>14.814814814814811</v>
       </c>
-      <c r="D22" s="2">
-        <f>(D4-$C$19)^2*F12</f>
+      <c r="D23">
+        <f>(D4-$C$20)^2*F12</f>
         <v>4.8395061728395046</v>
       </c>
-      <c r="E22" s="2">
-        <f>(E4-$C$19)^2*F13</f>
+      <c r="E23">
+        <f>(E4-$C$20)^2*F13</f>
         <v>2.9876543209876529</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <f>(C5-$C$19)^2*F13</f>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f>(C5-$C$20)^2*F13</f>
         <v>2.9876543209876529</v>
       </c>
-      <c r="D23" s="2">
-        <f>(D5-$C$19)^2*F11</f>
+      <c r="D24">
+        <f>(D5-$C$20)^2*F11</f>
         <v>7.1358024691358013</v>
       </c>
-      <c r="E23" s="2">
-        <f>(E5-$C$19)^2*F10</f>
+      <c r="E24">
+        <f>(E5-$C$20)^2*F10</f>
         <v>14.814814814814811</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <f>SUM(C21:E23)</f>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C22:E24)</f>
         <v>74.370370370370352</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AB8410-FF8E-47E1-94B8-392E47F0BDD8}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,89 +1272,89 @@
     <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10">
+        <v>100</v>
+      </c>
+      <c r="F2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>110</v>
+      </c>
+      <c r="E3" s="12">
+        <v>122</v>
+      </c>
+      <c r="F3" s="10">
+        <v>222</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14">
-        <v>100</v>
-      </c>
-      <c r="E2" s="14">
-        <v>100</v>
-      </c>
-      <c r="F2" s="14">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>122</v>
+      </c>
+      <c r="E4" s="14">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15">
-        <v>110</v>
-      </c>
-      <c r="E3" s="16">
-        <v>122</v>
-      </c>
-      <c r="F3" s="14">
-        <v>222</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17">
-        <v>122</v>
-      </c>
-      <c r="E4" s="18">
-        <v>200</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1027,167 +1371,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <f>E10/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="12">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <f t="shared" ref="F11:F15" si="0">E11/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="H11">
         <f>SUM(F10:F15)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="12">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13">
         <v>110</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <f>E13/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="12">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14">
         <v>122</v>
       </c>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="12">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15">
         <v>200</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18">
         <f>C3*F11</f>
         <v>0.88888888888888884</v>
       </c>
@@ -1200,10 +1479,8 @@
         <v>27.111111111111111</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19">
         <f>C4*F10</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1216,10 +1493,8 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20">
         <f>C5*F12</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1232,93 +1507,70 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <f>SUM(C18:E20)</f>
         <v>92.444444444444457</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <f>(C3-$C$22)^2*F11</f>
+      <c r="C25">
+        <f>(C3-$C$23)^2*F11</f>
         <v>1738.3155006858715</v>
       </c>
-      <c r="D24" s="2">
-        <f>(D3-$C$22)^2*F13</f>
+      <c r="D25">
+        <f>(D3-$C$23)^2*F13</f>
         <v>34.244170096021897</v>
       </c>
-      <c r="E24" s="2">
-        <f>(E3-$C$22)^2*F14</f>
+      <c r="E25">
+        <f>(E3-$C$23)^2*F14</f>
         <v>194.11796982167337</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <f>(C4-$C$22)^2*F10</f>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>(C4-$C$23)^2*F10</f>
         <v>1777.8463648834022</v>
       </c>
-      <c r="D25" s="2">
-        <f>(D4-$C$22)^2*F14</f>
+      <c r="D26">
+        <f>(D4-$C$23)^2*F14</f>
         <v>194.11796982167337</v>
       </c>
-      <c r="E25" s="2">
-        <f>(E4-$C$22)^2*F15</f>
+      <c r="E26">
+        <f>(E4-$C$23)^2*F15</f>
         <v>1285.3552812071325</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2">
-        <f>(C5-$C$22)^2*F12</f>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>(C5-$C$23)^2*F12</f>
         <v>830.29355281207154</v>
       </c>
-      <c r="D26" s="2">
-        <f>(D5-$C$22)^2*F11</f>
+      <c r="D27">
+        <f>(D5-$C$23)^2*F11</f>
         <v>1738.3155006858715</v>
       </c>
-      <c r="E26" s="2">
-        <f>(E5-$C$22)^2*F10</f>
+      <c r="E27">
+        <f>(E5-$C$23)^2*F10</f>
         <v>1777.8463648834022</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <f>SUM(C24:E26)</f>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>SUM(C25:E27)</f>
         <v>9570.4526748971202</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,7 +1582,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,13 +1634,13 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
         <v>5</v>
       </c>
       <c r="F3">
@@ -1397,16 +1649,16 @@
       <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1414,13 +1666,13 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
         <v>6</v>
       </c>
       <c r="F4">
@@ -1429,16 +1681,16 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1446,13 +1698,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
         <v>3</v>
       </c>
       <c r="F5">
@@ -1461,16 +1713,16 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
-        <v>6</v>
-      </c>
-      <c r="K5" s="8">
-        <v>4</v>
-      </c>
-      <c r="L5" s="9">
-        <v>3</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9">
         <v>5</v>
       </c>
     </row>
@@ -1582,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1628,7 +1880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1636,85 +1888,85 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f>C10/$H$13</f>
+        <f t="shared" ref="C17:F20" si="0">C10/$H$13</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>D10/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>E10/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F17">
-        <f>F10/$H$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18">
-        <f>C11/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="D18">
-        <f>D11/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>E11/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>F11/$H$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>5</v>
       </c>
       <c r="C19">
-        <f>C12/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>D12/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>E12/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>F12/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="C20">
-        <f>C13/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>D13/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="E20">
-        <f>E13/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>F13/$H$13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20">
@@ -1722,12 +1974,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>C3*C18</f>
         <v>0.88888888888888884</v>
@@ -1741,7 +1993,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>C4*E17</f>
         <v>1</v>
@@ -1755,7 +2007,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>C5*D20</f>
         <v>1.3333333333333333</v>
@@ -1769,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1778,25 +2030,46 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>AVERAGE(C17:F20)</f>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1805,31 +2078,31 @@
         <v>15.50390625</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:D33" si="0">(D3-$B$31)^2</f>
+        <f t="shared" ref="C33:D33" si="1">(D3-$B$31)^2</f>
         <v>8.62890625</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.37890625</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f t="shared" ref="B34:D35" si="1">(C4-$B$31)^2</f>
+        <f t="shared" ref="B34:D35" si="2">(C4-$B$31)^2</f>
         <v>8.62890625</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.37890625</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.25390625</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.25390625</v>
       </c>
       <c r="C35">
@@ -1837,13 +2110,13 @@
         <v>15.50390625</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.62890625</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1900,5 +2173,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>